--- a/litgraph/Lit_Review.xlsx
+++ b/litgraph/Lit_Review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Lab\1.Research\4.Dissertation\Comprehensive_Exam_Portfolio\LitMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Lab\1.Research\4.Dissertation\Comprehensive_Exam_Portfolio\litgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6D36F-93CB-44DC-9197-260E4F46A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2665CEC-685D-42E3-A43B-E04B8607E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18220" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -802,9 +802,6 @@
     <t>Intensive Science and Virtual Philosophy</t>
   </si>
   <si>
-    <t>Material Complexity.</t>
-  </si>
-  <si>
     <t>Constructing Complexity</t>
   </si>
   <si>
@@ -829,9 +826,6 @@
     <t>Phygital Intelligence</t>
   </si>
   <si>
-    <t>The System of Objects.</t>
-  </si>
-  <si>
     <t>Cybernetics: Or Control and Communication in the Animal and the Machine</t>
   </si>
   <si>
@@ -1148,9 +1142,6 @@
   </si>
   <si>
     <t>Candide J Archit Knowl. 3(3):37-88.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charrette, Volume 4, Number 1, Spring 2017, Pp 58-73(16) [Internet]; Available from: http://orca.cf.ac.uk/125334/ </t>
   </si>
   <si>
     <t>Carnegie Mellon University</t>
@@ -2025,6 +2016,36 @@
   </si>
   <si>
     <t>Programming Matter</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Phygital Practices</t>
+  </si>
+  <si>
+    <t>Decentralized Governance &amp; Commons</t>
+  </si>
+  <si>
+    <t>Ethics &amp; Philosophical Frameworks</t>
+  </si>
+  <si>
+    <t>Computational Exploration</t>
+  </si>
+  <si>
+    <t>Symbiotic Material Ecologies</t>
+  </si>
+  <si>
+    <t>The System of Objects</t>
+  </si>
+  <si>
+    <t>Material Complexity</t>
+  </si>
+  <si>
+    <t>CDRF 2021</t>
+  </si>
+  <si>
+    <t>Charrette, Volume 4, Number 1, Spring 2017, Pp 58-73(16)</t>
   </si>
 </sst>
 </file>
@@ -2094,14 +2115,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2407,25 +2427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.36328125" customWidth="1"/>
     <col min="2" max="2" width="76.90625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="8.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="70.08984375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="26.36328125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="43.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="70.08984375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2433,77 +2454,86 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>239</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2008</v>
       </c>
-      <c r="G2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
         <v>142</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>240</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2017</v>
       </c>
-      <c r="G3" t="s">
-        <v>487</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2511,120 +2541,135 @@
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>241</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1997</v>
       </c>
-      <c r="G4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>242</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2019</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
         <v>145</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>243</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1992</v>
       </c>
-      <c r="G6" t="s">
-        <v>350</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="D7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>244</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1969</v>
       </c>
-      <c r="G7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>245</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1975</v>
       </c>
-      <c r="G8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>350</v>
+      </c>
+      <c r="J8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2632,169 +2677,190 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
         <v>148</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>246</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1932</v>
       </c>
-      <c r="G9" t="s">
-        <v>353</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>592</v>
       </c>
       <c r="D10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>247</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1934</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
         <v>150</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>248</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1883</v>
       </c>
-      <c r="G11" t="s">
-        <v>354</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>352</v>
+      </c>
+      <c r="J11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
         <v>151</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>249</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1972</v>
       </c>
-      <c r="G12" t="s">
-        <v>355</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
         <v>152</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>250</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1917</v>
       </c>
-      <c r="G13" t="s">
-        <v>356</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
         <v>153</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>251</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1899</v>
       </c>
-      <c r="G14" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>355</v>
+      </c>
+      <c r="J14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
         <v>154</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>252</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2005</v>
       </c>
-      <c r="G15" t="s">
-        <v>358</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2802,25 +2868,28 @@
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
         <v>155</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>253</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1997</v>
       </c>
-      <c r="G16" t="s">
-        <v>359</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>357</v>
+      </c>
+      <c r="J16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2828,135 +2897,150 @@
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
         <v>155</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>254</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1998</v>
       </c>
-      <c r="G17" t="s">
-        <v>360</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>593</v>
       </c>
       <c r="D18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" t="s">
         <v>156</v>
       </c>
-      <c r="E18" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18">
         <v>2017</v>
       </c>
-      <c r="G18" t="s">
-        <v>486</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>483</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
         <v>156</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>255</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2022</v>
       </c>
-      <c r="G19" t="s">
-        <v>504</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" t="s">
+        <v>501</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
         <v>157</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>256</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1993</v>
       </c>
-      <c r="G20" t="s">
-        <v>361</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
         <v>158</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>257</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1995</v>
       </c>
-      <c r="G21" t="s">
-        <v>362</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2964,25 +3048,28 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>258</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1998</v>
       </c>
-      <c r="G22" t="s">
-        <v>363</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2990,25 +3077,28 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
         <v>160</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>259</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2002</v>
       </c>
-      <c r="G23" t="s">
-        <v>364</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3016,25 +3106,28 @@
         <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>596</v>
+      </c>
+      <c r="G24">
         <v>2004</v>
       </c>
-      <c r="G24" t="s">
-        <v>365</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>363</v>
+      </c>
+      <c r="J24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3042,276 +3135,309 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
         <v>161</v>
       </c>
-      <c r="E25" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25">
         <v>2005</v>
       </c>
-      <c r="G25" t="s">
-        <v>485</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>482</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
         <v>162</v>
       </c>
-      <c r="E26" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26">
         <v>1993</v>
       </c>
-      <c r="G26" t="s">
-        <v>366</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>364</v>
+      </c>
+      <c r="J26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="D27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" t="s">
         <v>163</v>
       </c>
-      <c r="E27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27">
         <v>2018</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
         <v>164</v>
       </c>
-      <c r="E28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28">
         <v>2011</v>
       </c>
-      <c r="G28" t="s">
-        <v>367</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>365</v>
+      </c>
+      <c r="J28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
         <v>165</v>
       </c>
-      <c r="E29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29">
         <v>1966</v>
       </c>
-      <c r="G29" t="s">
-        <v>368</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>366</v>
+      </c>
+      <c r="J29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
         <v>166</v>
       </c>
-      <c r="E30" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30">
         <v>2023</v>
       </c>
-      <c r="G30" t="s">
-        <v>483</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>480</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J30" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
         <v>167</v>
       </c>
-      <c r="E31" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31">
         <v>2014</v>
       </c>
-      <c r="G31" t="s">
-        <v>482</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>479</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
         <v>168</v>
       </c>
-      <c r="E32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32">
         <v>2024</v>
       </c>
-      <c r="G32" t="s">
-        <v>481</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>478</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
         <v>169</v>
       </c>
-      <c r="E33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>595</v>
+      </c>
+      <c r="G33">
         <v>1968</v>
       </c>
-      <c r="G33" t="s">
-        <v>369</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
         <v>170</v>
       </c>
-      <c r="E34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34">
         <v>1948</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
         <v>171</v>
       </c>
-      <c r="E35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35">
         <v>1960</v>
       </c>
-      <c r="G35" t="s">
-        <v>480</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>477</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3319,28 +3445,31 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
         <v>159</v>
       </c>
-      <c r="E36" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36">
         <v>1970</v>
       </c>
-      <c r="G36" t="s">
-        <v>479</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>476</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3348,184 +3477,205 @@
         <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
         <v>161</v>
       </c>
-      <c r="E37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37">
         <v>1979</v>
       </c>
-      <c r="G37" t="s">
-        <v>370</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
         <v>172</v>
       </c>
-      <c r="E38" t="s">
-        <v>274</v>
-      </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38">
         <v>2007</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>475</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
         <v>173</v>
       </c>
-      <c r="E39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39">
         <v>2013</v>
       </c>
-      <c r="G39" t="s">
-        <v>477</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>474</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="D40" t="s">
+        <v>448</v>
+      </c>
+      <c r="E40" t="s">
         <v>174</v>
       </c>
-      <c r="E40" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40">
         <v>2024</v>
       </c>
-      <c r="G40" t="s">
-        <v>476</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>473</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
         <v>174</v>
       </c>
-      <c r="E41" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41">
         <v>2017</v>
       </c>
-      <c r="G41" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
         <v>174</v>
       </c>
-      <c r="E42" t="s">
-        <v>278</v>
-      </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42">
         <v>2023</v>
       </c>
-      <c r="G42" t="s">
-        <v>362</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
         <v>175</v>
       </c>
-      <c r="E43" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43">
         <v>2013</v>
       </c>
-      <c r="G43" t="s">
-        <v>372</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3533,218 +3683,245 @@
         <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
         <v>176</v>
       </c>
-      <c r="E44" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44">
         <v>2012</v>
       </c>
-      <c r="G44" t="s">
-        <v>475</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J44" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
       <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
         <v>177</v>
       </c>
-      <c r="E45" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45">
         <v>1959</v>
       </c>
-      <c r="G45" t="s">
-        <v>474</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>471</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
         <v>178</v>
       </c>
-      <c r="E46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46">
         <v>1984</v>
       </c>
-      <c r="G46" t="s">
-        <v>373</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47">
         <v>2009</v>
       </c>
-      <c r="G47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
         <v>180</v>
       </c>
-      <c r="E48" t="s">
-        <v>284</v>
-      </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48">
         <v>2010</v>
       </c>
-      <c r="G48" t="s">
-        <v>375</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
         <v>181</v>
       </c>
-      <c r="E49" t="s">
-        <v>285</v>
-      </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49">
         <v>2014</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
         <v>182</v>
       </c>
-      <c r="E50" t="s">
-        <v>286</v>
-      </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50">
         <v>2019</v>
       </c>
-      <c r="G50" t="s">
-        <v>473</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>470</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="D51" t="s">
+        <v>448</v>
+      </c>
+      <c r="E51" t="s">
         <v>183</v>
       </c>
-      <c r="E51" t="s">
-        <v>287</v>
-      </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51">
         <v>2016</v>
       </c>
-      <c r="G51" t="s">
-        <v>376</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>598</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
         <v>184</v>
       </c>
-      <c r="E52" t="s">
-        <v>288</v>
-      </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52">
         <v>2018</v>
       </c>
-      <c r="G52" t="s">
-        <v>377</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>374</v>
+      </c>
+      <c r="J52" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3752,181 +3929,202 @@
         <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
         <v>185</v>
       </c>
-      <c r="E53" t="s">
-        <v>289</v>
-      </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53">
         <v>2021</v>
       </c>
-      <c r="G53" t="s">
-        <v>472</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>469</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J53" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
         <v>186</v>
       </c>
-      <c r="E54" t="s">
-        <v>290</v>
-      </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>288</v>
+      </c>
+      <c r="G54">
         <v>2008</v>
       </c>
-      <c r="G54" t="s">
-        <v>471</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>468</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
         <v>187</v>
       </c>
-      <c r="E55" t="s">
-        <v>291</v>
-      </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55">
         <v>2019</v>
       </c>
-      <c r="G55" t="s">
-        <v>378</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>375</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J55" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
         <v>188</v>
       </c>
-      <c r="E56" t="s">
-        <v>292</v>
-      </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56">
         <v>2014</v>
       </c>
-      <c r="G56" t="s">
-        <v>362</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J56" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
         <v>189</v>
       </c>
-      <c r="E57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57">
         <v>2004</v>
       </c>
-      <c r="G57" t="s">
-        <v>379</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>376</v>
+      </c>
+      <c r="J57" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
         <v>190</v>
       </c>
-      <c r="E58" t="s">
-        <v>591</v>
-      </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>588</v>
+      </c>
+      <c r="G58">
         <v>2012</v>
       </c>
-      <c r="G58" t="s">
-        <v>470</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>467</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" t="s">
         <v>191</v>
       </c>
-      <c r="E59" t="s">
-        <v>294</v>
-      </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>292</v>
+      </c>
+      <c r="G59">
         <v>2021</v>
       </c>
-      <c r="G59" t="s">
-        <v>469</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>466</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3934,198 +4132,222 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
         <v>192</v>
       </c>
-      <c r="E60" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>293</v>
+      </c>
+      <c r="G60">
         <v>2022</v>
       </c>
-      <c r="G60" t="s">
-        <v>468</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>465</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
         <v>193</v>
       </c>
-      <c r="E61" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61">
         <v>2010</v>
       </c>
-      <c r="G61" t="s">
-        <v>467</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>464</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
         <v>194</v>
       </c>
-      <c r="E62" t="s">
-        <v>297</v>
-      </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62">
         <v>2019</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
       <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
         <v>195</v>
       </c>
-      <c r="E63" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>296</v>
+      </c>
+      <c r="G63">
         <v>2021</v>
       </c>
-      <c r="G63" t="s">
-        <v>466</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>463</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="D64" t="s">
+        <v>448</v>
+      </c>
+      <c r="E64" t="s">
         <v>196</v>
       </c>
-      <c r="E64" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64">
         <v>2024</v>
       </c>
-      <c r="G64" t="s">
-        <v>465</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>462</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
         <v>197</v>
       </c>
-      <c r="E65" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>298</v>
+      </c>
+      <c r="G65">
         <v>2016</v>
       </c>
-      <c r="G65" t="s">
-        <v>464</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>461</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="D66" t="s">
+        <v>448</v>
+      </c>
+      <c r="E66" t="s">
         <v>198</v>
       </c>
-      <c r="E66" t="s">
-        <v>301</v>
-      </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>299</v>
+      </c>
+      <c r="G66">
         <v>2025</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
         <v>199</v>
       </c>
-      <c r="E67" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67">
         <v>2017</v>
       </c>
-      <c r="G67" t="s">
-        <v>463</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>460</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4133,108 +4355,123 @@
         <v>130</v>
       </c>
       <c r="C68" t="s">
+        <v>592</v>
+      </c>
+      <c r="D68" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>143</v>
       </c>
-      <c r="E68" t="s">
-        <v>303</v>
-      </c>
-      <c r="F68">
+      <c r="F68" t="s">
+        <v>301</v>
+      </c>
+      <c r="G68">
         <v>2004</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C69" t="s">
+        <v>593</v>
+      </c>
+      <c r="D69" t="s">
         <v>139</v>
       </c>
-      <c r="D69" t="s">
-        <v>450</v>
-      </c>
       <c r="E69" t="s">
-        <v>304</v>
-      </c>
-      <c r="F69">
+        <v>447</v>
+      </c>
+      <c r="F69" t="s">
+        <v>302</v>
+      </c>
+      <c r="G69">
         <v>1803</v>
       </c>
-      <c r="G69" t="s">
-        <v>380</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>377</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="C70" t="s">
+        <v>593</v>
+      </c>
+      <c r="D70" t="s">
         <v>139</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>200</v>
       </c>
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70">
         <v>1890</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="s">
+        <v>593</v>
+      </c>
+      <c r="D71" t="s">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>201</v>
       </c>
-      <c r="E71" t="s">
-        <v>306</v>
-      </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>304</v>
+      </c>
+      <c r="G71">
         <v>1984</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="s">
+        <v>593</v>
+      </c>
+      <c r="D72" t="s">
         <v>139</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>202</v>
       </c>
-      <c r="E72" t="s">
-        <v>307</v>
-      </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>305</v>
+      </c>
+      <c r="G72">
         <v>1987</v>
       </c>
-      <c r="G72" t="s">
-        <v>381</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4242,62 +4479,71 @@
         <v>131</v>
       </c>
       <c r="C73" t="s">
+        <v>592</v>
+      </c>
+      <c r="D73" t="s">
         <v>139</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>203</v>
       </c>
-      <c r="E73" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73">
         <v>1987</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="s">
+        <v>593</v>
+      </c>
+      <c r="D74" t="s">
         <v>139</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>204</v>
       </c>
-      <c r="E74" t="s">
-        <v>309</v>
-      </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74">
         <v>1993</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="C75" t="s">
+        <v>593</v>
+      </c>
+      <c r="D75" t="s">
         <v>139</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>205</v>
       </c>
-      <c r="E75" t="s">
-        <v>310</v>
-      </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75">
         <v>1963</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4305,105 +4551,120 @@
         <v>132</v>
       </c>
       <c r="C76" t="s">
+        <v>593</v>
+      </c>
+      <c r="D76" t="s">
         <v>139</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>206</v>
       </c>
-      <c r="E76" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76">
         <v>1952</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="s">
+        <v>593</v>
+      </c>
+      <c r="D77" t="s">
         <v>139</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>207</v>
       </c>
-      <c r="E77" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77">
         <v>1948</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
+        <v>591</v>
+      </c>
+      <c r="D78" t="s">
         <v>139</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>208</v>
       </c>
-      <c r="E78" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78">
         <v>1961</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="C79" t="s">
+        <v>593</v>
+      </c>
+      <c r="D79" t="s">
         <v>139</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>209</v>
       </c>
-      <c r="E79" t="s">
-        <v>314</v>
-      </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79">
         <v>1970</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="s">
+        <v>593</v>
+      </c>
+      <c r="D80" t="s">
         <v>139</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>210</v>
       </c>
-      <c r="E80" t="s">
-        <v>315</v>
-      </c>
-      <c r="F80">
+      <c r="F80" t="s">
+        <v>313</v>
+      </c>
+      <c r="G80">
         <v>2002</v>
       </c>
-      <c r="G80" t="s">
-        <v>382</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H80" t="s">
+        <v>379</v>
+      </c>
+      <c r="J80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -4411,161 +4672,179 @@
         <v>133</v>
       </c>
       <c r="C81" t="s">
+        <v>591</v>
+      </c>
+      <c r="D81" t="s">
         <v>139</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>211</v>
       </c>
-      <c r="E81" t="s">
-        <v>316</v>
-      </c>
-      <c r="F81">
+      <c r="F81" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81">
         <v>2018</v>
       </c>
-      <c r="G81" t="s">
-        <v>462</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H81" t="s">
+        <v>459</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J81" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
+        <v>594</v>
+      </c>
+      <c r="D82" t="s">
         <v>139</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>212</v>
       </c>
-      <c r="E82" t="s">
-        <v>317</v>
-      </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82">
         <v>2023</v>
       </c>
-      <c r="G82" t="s">
-        <v>383</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H82" t="s">
+        <v>380</v>
+      </c>
+      <c r="J82" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="s">
+        <v>591</v>
+      </c>
+      <c r="D83" t="s">
         <v>139</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>213</v>
       </c>
-      <c r="E83" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>316</v>
+      </c>
+      <c r="G83">
         <v>2021</v>
       </c>
-      <c r="G83" t="s">
-        <v>461</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H83" t="s">
+        <v>458</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J83" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="s">
+        <v>591</v>
+      </c>
+      <c r="D84" t="s">
         <v>139</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>214</v>
       </c>
-      <c r="E84" t="s">
-        <v>319</v>
-      </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>317</v>
+      </c>
+      <c r="G84">
         <v>1998</v>
       </c>
-      <c r="G84" t="s">
-        <v>460</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H84" t="s">
+        <v>457</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J84" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C85" t="s">
+        <v>594</v>
+      </c>
+      <c r="D85" t="s">
         <v>139</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>215</v>
       </c>
-      <c r="E85" t="s">
-        <v>320</v>
-      </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>318</v>
+      </c>
+      <c r="G85">
         <v>2022</v>
       </c>
-      <c r="G85" t="s">
-        <v>459</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H85" t="s">
+        <v>456</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J85" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>90</v>
       </c>
       <c r="C86" t="s">
+        <v>594</v>
+      </c>
+      <c r="D86" t="s">
         <v>139</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>216</v>
       </c>
-      <c r="E86" t="s">
-        <v>321</v>
-      </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>319</v>
+      </c>
+      <c r="G86">
         <v>2012</v>
       </c>
-      <c r="G86" t="s">
-        <v>458</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H86" t="s">
+        <v>455</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J86" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -4573,293 +4852,329 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
+        <v>594</v>
+      </c>
+      <c r="D87" t="s">
         <v>139</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>217</v>
       </c>
-      <c r="E87" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>320</v>
+      </c>
+      <c r="G87">
         <v>2022</v>
       </c>
-      <c r="G87" t="s">
-        <v>457</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H87" t="s">
+        <v>454</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J87" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>92</v>
       </c>
       <c r="C88" t="s">
+        <v>594</v>
+      </c>
+      <c r="D88" t="s">
         <v>139</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>218</v>
       </c>
-      <c r="E88" t="s">
-        <v>323</v>
-      </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>321</v>
+      </c>
+      <c r="G88">
         <v>2015</v>
       </c>
-      <c r="G88" t="s">
-        <v>384</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H88" t="s">
+        <v>381</v>
+      </c>
+      <c r="J88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
       <c r="C89" t="s">
+        <v>591</v>
+      </c>
+      <c r="D89" t="s">
         <v>139</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>219</v>
       </c>
-      <c r="E89" t="s">
-        <v>324</v>
-      </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89">
         <v>1993</v>
       </c>
-      <c r="G89" t="s">
-        <v>362</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H89" t="s">
+        <v>360</v>
+      </c>
+      <c r="J89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="C90" t="s">
+        <v>590</v>
+      </c>
+      <c r="D90" t="s">
         <v>139</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>220</v>
       </c>
-      <c r="E90" t="s">
-        <v>325</v>
-      </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>323</v>
+      </c>
+      <c r="G90">
         <v>2015</v>
       </c>
-      <c r="G90" t="s">
-        <v>452</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>449</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>95</v>
       </c>
       <c r="C91" t="s">
+        <v>591</v>
+      </c>
+      <c r="D91" t="s">
         <v>139</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>221</v>
       </c>
-      <c r="E91" t="s">
-        <v>326</v>
-      </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91">
         <v>2014</v>
       </c>
-      <c r="G91" t="s">
-        <v>385</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J91" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>96</v>
       </c>
       <c r="C92" t="s">
+        <v>590</v>
+      </c>
+      <c r="D92" t="s">
         <v>139</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>222</v>
       </c>
-      <c r="E92" t="s">
-        <v>327</v>
-      </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92">
         <v>2014</v>
       </c>
-      <c r="G92" t="s">
-        <v>386</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>383</v>
+      </c>
+      <c r="J92" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C93" t="s">
+        <v>591</v>
+      </c>
+      <c r="D93" t="s">
         <v>139</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>146</v>
       </c>
-      <c r="E93" t="s">
-        <v>328</v>
-      </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93">
         <v>1963</v>
       </c>
-      <c r="G93" t="s">
-        <v>387</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H93" t="s">
+        <v>384</v>
+      </c>
+      <c r="J93" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="C94" t="s">
+        <v>594</v>
+      </c>
+      <c r="D94" t="s">
         <v>139</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>223</v>
       </c>
-      <c r="E94" t="s">
-        <v>329</v>
-      </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+      <c r="G94">
         <v>2020</v>
       </c>
-      <c r="G94" t="s">
-        <v>455</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H94" t="s">
+        <v>452</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J94" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>99</v>
       </c>
       <c r="C95" t="s">
+        <v>592</v>
+      </c>
+      <c r="D95" t="s">
         <v>139</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>224</v>
       </c>
-      <c r="E95" t="s">
-        <v>330</v>
-      </c>
-      <c r="F95">
+      <c r="F95" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95">
         <v>2011</v>
       </c>
-      <c r="G95" t="s">
-        <v>388</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H95" t="s">
+        <v>385</v>
+      </c>
+      <c r="J95" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>100</v>
       </c>
       <c r="C96" t="s">
+        <v>591</v>
+      </c>
+      <c r="D96" t="s">
         <v>139</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>225</v>
       </c>
-      <c r="E96" t="s">
-        <v>331</v>
-      </c>
-      <c r="F96">
+      <c r="F96" t="s">
+        <v>329</v>
+      </c>
+      <c r="G96">
         <v>1951</v>
       </c>
-      <c r="I96" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="s">
+        <v>594</v>
+      </c>
+      <c r="D97" t="s">
         <v>139</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>226</v>
       </c>
-      <c r="E97" t="s">
-        <v>332</v>
-      </c>
-      <c r="F97">
+      <c r="F97" t="s">
+        <v>330</v>
+      </c>
+      <c r="G97">
         <v>2019</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H97" t="s">
+        <v>451</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J97" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="s">
+        <v>590</v>
+      </c>
+      <c r="D98" t="s">
         <v>139</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>227</v>
       </c>
-      <c r="E98" t="s">
-        <v>333</v>
-      </c>
-      <c r="F98">
+      <c r="F98" t="s">
+        <v>331</v>
+      </c>
+      <c r="G98">
         <v>2019</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H98" t="s">
+        <v>450</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J98" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -4867,53 +5182,62 @@
         <v>135</v>
       </c>
       <c r="C99" t="s">
+        <v>592</v>
+      </c>
+      <c r="D99" t="s">
         <v>140</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>149</v>
       </c>
-      <c r="E99" t="s">
-        <v>334</v>
-      </c>
-      <c r="F99">
+      <c r="F99" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99">
         <v>1949</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="s">
+        <v>592</v>
+      </c>
+      <c r="D100" t="s">
         <v>140</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>228</v>
       </c>
-      <c r="E100" t="s">
-        <v>335</v>
-      </c>
-      <c r="F100">
+      <c r="F100" t="s">
+        <v>333</v>
+      </c>
+      <c r="G100">
         <v>1776</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>105</v>
       </c>
       <c r="C101" t="s">
+        <v>592</v>
+      </c>
+      <c r="D101" t="s">
         <v>140</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>229</v>
       </c>
-      <c r="E101" t="s">
-        <v>336</v>
-      </c>
-      <c r="F101">
+      <c r="F101" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101">
         <v>1848</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -4921,136 +5245,157 @@
         <v>136</v>
       </c>
       <c r="C102" t="s">
+        <v>592</v>
+      </c>
+      <c r="D102" t="s">
         <v>140</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>148</v>
       </c>
-      <c r="E102" t="s">
-        <v>337</v>
-      </c>
-      <c r="F102">
+      <c r="F102" t="s">
+        <v>335</v>
+      </c>
+      <c r="G102">
         <v>1962</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>107</v>
       </c>
       <c r="C103" t="s">
+        <v>592</v>
+      </c>
+      <c r="D103" t="s">
         <v>140</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>230</v>
       </c>
-      <c r="E103" t="s">
-        <v>338</v>
-      </c>
-      <c r="F103">
+      <c r="F103" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103">
         <v>1949</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
+        <v>592</v>
+      </c>
+      <c r="D104" t="s">
         <v>140</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>231</v>
       </c>
-      <c r="E104" t="s">
-        <v>339</v>
-      </c>
-      <c r="F104">
+      <c r="F104" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104">
         <v>1962</v>
       </c>
-      <c r="G104" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>109</v>
       </c>
       <c r="C105" t="s">
+        <v>590</v>
+      </c>
+      <c r="D105" t="s">
         <v>140</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>232</v>
       </c>
-      <c r="E105" t="s">
-        <v>340</v>
-      </c>
-      <c r="F105">
+      <c r="F105" t="s">
+        <v>338</v>
+      </c>
+      <c r="G105">
         <v>2021</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H105" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>110</v>
       </c>
       <c r="C106" t="s">
+        <v>594</v>
+      </c>
+      <c r="D106" t="s">
         <v>140</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>233</v>
       </c>
-      <c r="E106" t="s">
-        <v>341</v>
-      </c>
-      <c r="F106">
+      <c r="F106" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106">
         <v>2023</v>
       </c>
-      <c r="G106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>111</v>
       </c>
       <c r="C107" t="s">
+        <v>592</v>
+      </c>
+      <c r="D107" t="s">
         <v>140</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>234</v>
       </c>
-      <c r="E107" t="s">
-        <v>342</v>
-      </c>
-      <c r="F107">
+      <c r="F107" t="s">
+        <v>340</v>
+      </c>
+      <c r="G107">
         <v>1975</v>
       </c>
-      <c r="G107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>112</v>
       </c>
       <c r="C108" t="s">
+        <v>593</v>
+      </c>
+      <c r="D108" t="s">
         <v>140</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>235</v>
       </c>
-      <c r="E108" t="s">
-        <v>343</v>
-      </c>
-      <c r="F108">
+      <c r="F108" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108">
         <v>1902</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -5058,124 +5403,135 @@
         <v>137</v>
       </c>
       <c r="C109" t="s">
+        <v>593</v>
+      </c>
+      <c r="D109" t="s">
         <v>140</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>206</v>
       </c>
-      <c r="E109" t="s">
-        <v>344</v>
-      </c>
-      <c r="F109">
+      <c r="F109" t="s">
+        <v>342</v>
+      </c>
+      <c r="G109">
         <v>1936</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>114</v>
       </c>
       <c r="C110" t="s">
+        <v>593</v>
+      </c>
+      <c r="D110" t="s">
         <v>140</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>236</v>
       </c>
-      <c r="E110" t="s">
-        <v>345</v>
-      </c>
-      <c r="F110">
+      <c r="F110" t="s">
+        <v>343</v>
+      </c>
+      <c r="G110">
         <v>1931</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C111" t="s">
+        <v>594</v>
+      </c>
+      <c r="D111" t="s">
         <v>140</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>237</v>
       </c>
-      <c r="E111" t="s">
-        <v>346</v>
-      </c>
-      <c r="F111">
+      <c r="F111" t="s">
+        <v>344</v>
+      </c>
+      <c r="G111">
         <v>2022</v>
       </c>
-      <c r="G111" t="s">
-        <v>456</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H111" t="s">
+        <v>453</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>116</v>
       </c>
       <c r="C112" t="s">
+        <v>593</v>
+      </c>
+      <c r="D112" t="s">
         <v>140</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>238</v>
       </c>
-      <c r="E112" t="s">
-        <v>347</v>
-      </c>
-      <c r="F112">
+      <c r="F112" t="s">
+        <v>345</v>
+      </c>
+      <c r="G112">
         <v>1966</v>
       </c>
-      <c r="G112" t="s">
-        <v>395</v>
+      <c r="H112" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H39" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H45" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H67" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H81" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H84" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H85" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H87" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H90" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H94" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H97" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H98" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G105" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H105" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H111" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H35" r:id="rId40" xr:uid="{E5F347C5-5D6B-4351-8E82-0C7763FF2326}"/>
-    <hyperlink ref="H19" r:id="rId41" xr:uid="{174D6D23-9E65-4EE0-A27A-BE34DB0F421A}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I39" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I45" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I67" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I81" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I84" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I85" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I87" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I90" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I94" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I97" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I98" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I105" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I111" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I35" r:id="rId39" xr:uid="{E5F347C5-5D6B-4351-8E82-0C7763FF2326}"/>
+    <hyperlink ref="I19" r:id="rId40" xr:uid="{174D6D23-9E65-4EE0-A27A-BE34DB0F421A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/litgraph/Lit_Review.xlsx
+++ b/litgraph/Lit_Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Lab\1.Research\4.Dissertation\Comprehensive_Exam_Portfolio\litgraph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\Documents\GitHub\cxlso.github.io\litgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2665CEC-685D-42E3-A43B-E04B8607E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAD3F1-4AE1-4829-809F-DE0416D0484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18220" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2004,48 +2004,48 @@
 Yet the authors do not call for abandoning abstraction. Instead, they advocate for legible abstraction: tools that expose their internal reasoning, allow users to trace causal pathways, and support interpretability over mere efficiency. They argue that the future of the post-digital hinges on designing epistemic environments where agency is shared, intelligibility is preserved, and computational power remains participatory rather than proprietary. Their critique thus reframes the post-digital not as a technological stage but as an ethical responsibility: to ensure that digital tools expand, rather than erode, the capacity to understand and act.</t>
   </si>
   <si>
+    <t>Snooks, R. 2022; Snooks, R. 2017; Allen, S. 1997</t>
+  </si>
+  <si>
+    <t>Snooks, R. 2017; Snooks, R. 2022; Deleuze, G. 1993; Cache, B. 1995; Allen, S. 1997</t>
+  </si>
+  <si>
+    <t>Programming Matter</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Phygital Practices</t>
+  </si>
+  <si>
+    <t>Decentralized Governance &amp; Commons</t>
+  </si>
+  <si>
+    <t>Ethics &amp; Philosophical Frameworks</t>
+  </si>
+  <si>
+    <t>Computational Exploration</t>
+  </si>
+  <si>
+    <t>Symbiotic Material Ecologies</t>
+  </si>
+  <si>
+    <t>The System of Objects</t>
+  </si>
+  <si>
+    <t>Material Complexity</t>
+  </si>
+  <si>
+    <t>CDRF 2021</t>
+  </si>
+  <si>
+    <t>Charrette, Volume 4, Number 1, Spring 2017, Pp 58-73(16)</t>
+  </si>
+  <si>
     <t>Provides Ng’s Decentralised Indexing in Common Data Environments (2025) addresses a structural problem that becomes urgent in post-digital design: how to sustain distributed, intelligible, and participatory technological ecosystems once they scale beyond local labs or workshops. Ng argues that while digital fabrication, robotic-aided processes, and computational design have enabled new forms of co-authorship between humans, machines, and materials, these practices remain vulnerable to re-centralization. Proprietary platforms, opaque algorithms, and corporate data infrastructures risk absorbing open workflows into closed technical stacks. The challenge, therefore, is not only how to distribute tools, but how to distribute the ability to understand and govern technological processes.
-Ng proposes decentralized indexing as a foundational architecture for Common Data Environments (CDEs). Rather than storing project information, authorship records, and fabrication data within a single authority, he introduces mechanisms for distributed tracing, verification, and governance. Through blockchain-inspired consensus models—such as his “Proof-of-Architectural-Work”—Ng enables contributions to be recorded immutably and transparently, ensuring that collective knowledge cannot be enclosed or monetized by intermediaries. These systems allow authorship to be legible across federated networks, support peer-to-peer validation of design and fabrication processes, and establish value frameworks based on participation, reputation, and shared stewardship rather than extraction.
-Read within the broader evolution of post-digital thought, Ng provides the missing institutional layer. He shows how the distributed agencies theorized by Snooks, Crolla, and Vázquez &amp; Jabi can scale without losing reciprocity or intelligibility. Ultimately, Ng reframes CDEs as political infrastructures: environments where the means of production remain public, traceable, and collectively cared for, enabling technological emancipation through durable forms of epistemic transparency.</t>
-  </si>
-  <si>
-    <t>Snooks, R. 2022; Snooks, R. 2017; Allen, S. 1997</t>
-  </si>
-  <si>
-    <t>Snooks, R. 2017; Snooks, R. 2022; Deleuze, G. 1993; Cache, B. 1995; Allen, S. 1997</t>
-  </si>
-  <si>
-    <t>Programming Matter</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>Phygital Practices</t>
-  </si>
-  <si>
-    <t>Decentralized Governance &amp; Commons</t>
-  </si>
-  <si>
-    <t>Ethics &amp; Philosophical Frameworks</t>
-  </si>
-  <si>
-    <t>Computational Exploration</t>
-  </si>
-  <si>
-    <t>Symbiotic Material Ecologies</t>
-  </si>
-  <si>
-    <t>The System of Objects</t>
-  </si>
-  <si>
-    <t>Material Complexity</t>
-  </si>
-  <si>
-    <t>CDRF 2021</t>
-  </si>
-  <si>
-    <t>Charrette, Volume 4, Number 1, Spring 2017, Pp 58-73(16)</t>
+Ng proposes decentralized indexing as a foundational architecture for Common Data Environments (CDEs). Rather than storing project information, authorship records, and fabrication data within a single authority, hse introduces mechanisms for distributed tracing, verification, and governance. Through blockchain-inspired consensus models—such as his “Proof-of-Architectural-Work”—Ng enables contributions to be recorded immutably and transparently, ensuring that collective knowledge cannot be enclosed or monetized by intermediaries. These systems allow authorship to be legible across federated networks, support peer-to-peer validation of design and fabrication processes, and establish value frameworks based on participation, reputation, and shared stewardship rather than extraction.
+Read within the broader evolution of post-digital thought, Ng provides the missing institutional layer. She shows how the distributed agencies theorized by Snooks, Crolla, and Vázquez &amp; Jabi can scale without losing reciprocity or intelligibility. Ultimately, Ng reframes CDEs as political infrastructures: environments where the means of production remain public, traceable, and collectively cared for, enabling technological emancipation through durable forms of epistemic transparency.</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2121,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s">
         <v>448</v>
@@ -2509,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D3" t="s">
         <v>138</v>
@@ -2541,7 +2541,7 @@
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D4" t="s">
         <v>138</v>
@@ -2567,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
@@ -2590,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D6" t="s">
         <v>138</v>
@@ -2619,7 +2619,7 @@
         <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D7" t="s">
         <v>448</v>
@@ -2648,7 +2648,7 @@
         <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D8" t="s">
         <v>138</v>
@@ -2677,7 +2677,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D9" t="s">
         <v>138</v>
@@ -2706,7 +2706,7 @@
         <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D10" t="s">
         <v>448</v>
@@ -2729,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
         <v>138</v>
@@ -2758,7 +2758,7 @@
         <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D12" t="s">
         <v>138</v>
@@ -2787,7 +2787,7 @@
         <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D13" t="s">
         <v>138</v>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" t="s">
         <v>138</v>
@@ -2839,7 +2839,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D15" t="s">
         <v>138</v>
@@ -2868,7 +2868,7 @@
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D16" t="s">
         <v>138</v>
@@ -2897,7 +2897,7 @@
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D17" t="s">
         <v>138</v>
@@ -2923,10 +2923,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D18" t="s">
         <v>448</v>
@@ -2955,10 +2955,10 @@
         <v>500</v>
       </c>
       <c r="B19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D19" t="s">
         <v>138</v>
@@ -2990,7 +2990,7 @@
         <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D20" t="s">
         <v>138</v>
@@ -3019,7 +3019,7 @@
         <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
@@ -3048,7 +3048,7 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D22" t="s">
         <v>138</v>
@@ -3077,7 +3077,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D23" t="s">
         <v>138</v>
@@ -3106,7 +3106,7 @@
         <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D24" t="s">
         <v>138</v>
@@ -3115,7 +3115,7 @@
         <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G24">
         <v>2004</v>
@@ -3135,7 +3135,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D25" t="s">
         <v>138</v>
@@ -3164,7 +3164,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
@@ -3193,7 +3193,7 @@
         <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D27" t="s">
         <v>448</v>
@@ -3222,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
@@ -3248,7 +3248,7 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D29" t="s">
         <v>138</v>
@@ -3277,7 +3277,7 @@
         <v>445</v>
       </c>
       <c r="C30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D30" t="s">
         <v>138</v>
@@ -3306,7 +3306,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D31" t="s">
         <v>138</v>
@@ -3335,7 +3335,7 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D32" t="s">
         <v>138</v>
@@ -3364,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D33" t="s">
         <v>138</v>
@@ -3373,7 +3373,7 @@
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G33">
         <v>1968</v>
@@ -3390,7 +3390,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
@@ -3413,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
@@ -3477,7 +3477,7 @@
         <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
@@ -3535,7 +3535,7 @@
         <v>435</v>
       </c>
       <c r="C39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
@@ -3567,7 +3567,7 @@
         <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D40" t="s">
         <v>448</v>
@@ -3599,7 +3599,7 @@
         <v>437</v>
       </c>
       <c r="C41" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D41" t="s">
         <v>138</v>
@@ -3628,7 +3628,7 @@
         <v>429</v>
       </c>
       <c r="C42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D42" t="s">
         <v>138</v>
@@ -3654,7 +3654,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D43" t="s">
         <v>138</v>
@@ -3683,7 +3683,7 @@
         <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
@@ -3712,7 +3712,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D45" t="s">
         <v>138</v>
@@ -3741,7 +3741,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
@@ -3767,7 +3767,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -3793,7 +3793,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D48" t="s">
         <v>138</v>
@@ -3819,7 +3819,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -3842,7 +3842,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D50" t="s">
         <v>138</v>
@@ -3871,7 +3871,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D51" t="s">
         <v>448</v>
@@ -3886,7 +3886,7 @@
         <v>2016</v>
       </c>
       <c r="H51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>405</v>
@@ -3900,7 +3900,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D52" t="s">
         <v>138</v>
@@ -3929,7 +3929,7 @@
         <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D53" t="s">
         <v>138</v>
@@ -3961,7 +3961,7 @@
         <v>438</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D54" t="s">
         <v>138</v>
@@ -3990,7 +3990,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D55" t="s">
         <v>138</v>
@@ -4019,7 +4019,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D56" t="s">
         <v>138</v>
@@ -4045,7 +4045,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D57" t="s">
         <v>138</v>
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D58" t="s">
         <v>138</v>
@@ -4080,7 +4080,7 @@
         <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G58">
         <v>2012</v>
@@ -4100,7 +4100,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D59" t="s">
         <v>138</v>
@@ -4132,7 +4132,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D60" t="s">
         <v>138</v>
@@ -4161,7 +4161,7 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D61" t="s">
         <v>138</v>
@@ -4190,7 +4190,7 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D62" t="s">
         <v>138</v>
@@ -4213,7 +4213,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D63" t="s">
         <v>138</v>
@@ -4242,7 +4242,7 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D64" t="s">
         <v>448</v>
@@ -4271,7 +4271,7 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D65" t="s">
         <v>138</v>
@@ -4300,7 +4300,7 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D66" t="s">
         <v>448</v>
@@ -4314,8 +4314,8 @@
       <c r="G66">
         <v>2025</v>
       </c>
-      <c r="J66" t="s">
-        <v>585</v>
+      <c r="J66" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -4323,7 +4323,7 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D67" t="s">
         <v>138</v>
@@ -4355,7 +4355,7 @@
         <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D68" t="s">
         <v>139</v>
@@ -4378,7 +4378,7 @@
         <v>439</v>
       </c>
       <c r="C69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D69" t="s">
         <v>139</v>
@@ -4404,7 +4404,7 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D70" t="s">
         <v>139</v>
@@ -4427,7 +4427,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
@@ -4450,7 +4450,7 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D72" t="s">
         <v>139</v>
@@ -4479,7 +4479,7 @@
         <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D73" t="s">
         <v>139</v>
@@ -4502,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D74" t="s">
         <v>139</v>
@@ -4525,7 +4525,7 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D75" t="s">
         <v>139</v>
@@ -4551,7 +4551,7 @@
         <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D76" t="s">
         <v>139</v>
@@ -4574,7 +4574,7 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D77" t="s">
         <v>139</v>
@@ -4597,7 +4597,7 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D78" t="s">
         <v>139</v>
@@ -4620,7 +4620,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D79" t="s">
         <v>139</v>
@@ -4643,7 +4643,7 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D80" t="s">
         <v>139</v>
@@ -4672,7 +4672,7 @@
         <v>133</v>
       </c>
       <c r="C81" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D81" t="s">
         <v>139</v>
@@ -4704,7 +4704,7 @@
         <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D82" t="s">
         <v>139</v>
@@ -4730,7 +4730,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D83" t="s">
         <v>139</v>
@@ -4759,7 +4759,7 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D84" t="s">
         <v>139</v>
@@ -4791,7 +4791,7 @@
         <v>430</v>
       </c>
       <c r="C85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D85" t="s">
         <v>139</v>
@@ -4820,7 +4820,7 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D86" t="s">
         <v>139</v>
@@ -4852,7 +4852,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D87" t="s">
         <v>139</v>
@@ -4881,7 +4881,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D88" t="s">
         <v>139</v>
@@ -4907,7 +4907,7 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D89" t="s">
         <v>139</v>
@@ -4933,7 +4933,7 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D90" t="s">
         <v>139</v>
@@ -4962,7 +4962,7 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D91" t="s">
         <v>139</v>
@@ -4988,7 +4988,7 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D92" t="s">
         <v>139</v>
@@ -5017,7 +5017,7 @@
         <v>431</v>
       </c>
       <c r="C93" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
         <v>139</v>
@@ -5043,7 +5043,7 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D94" t="s">
         <v>139</v>
@@ -5072,7 +5072,7 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -5098,7 +5098,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D96" t="s">
         <v>139</v>
@@ -5121,7 +5121,7 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D97" t="s">
         <v>139</v>
@@ -5150,7 +5150,7 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D98" t="s">
         <v>139</v>
@@ -5182,7 +5182,7 @@
         <v>135</v>
       </c>
       <c r="C99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D99" t="s">
         <v>140</v>
@@ -5202,7 +5202,7 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D100" t="s">
         <v>140</v>
@@ -5222,7 +5222,7 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D101" t="s">
         <v>140</v>
@@ -5245,7 +5245,7 @@
         <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D102" t="s">
         <v>140</v>
@@ -5265,7 +5265,7 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D103" t="s">
         <v>140</v>
@@ -5285,7 +5285,7 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D104" t="s">
         <v>140</v>
@@ -5308,7 +5308,7 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D105" t="s">
         <v>140</v>
@@ -5322,8 +5322,8 @@
       <c r="G105">
         <v>2021</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>597</v>
+      <c r="H105" t="s">
+        <v>596</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>389</v>
@@ -5334,7 +5334,7 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D106" t="s">
         <v>140</v>
@@ -5357,7 +5357,7 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D107" t="s">
         <v>140</v>
@@ -5380,7 +5380,7 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D108" t="s">
         <v>140</v>
@@ -5403,7 +5403,7 @@
         <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D109" t="s">
         <v>140</v>
@@ -5423,7 +5423,7 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D110" t="s">
         <v>140</v>
@@ -5446,7 +5446,7 @@
         <v>432</v>
       </c>
       <c r="C111" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D111" t="s">
         <v>140</v>
@@ -5472,7 +5472,7 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D112" t="s">
         <v>140</v>

--- a/litgraph/Lit_Review.xlsx
+++ b/litgraph/Lit_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\Documents\GitHub\cxlso.github.io\litgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAD3F1-4AE1-4829-809F-DE0416D0484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE767F7-5B72-458B-909E-146B8B40D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   </si>
   <si>
     <t>Provides Ng’s Decentralised Indexing in Common Data Environments (2025) addresses a structural problem that becomes urgent in post-digital design: how to sustain distributed, intelligible, and participatory technological ecosystems once they scale beyond local labs or workshops. Ng argues that while digital fabrication, robotic-aided processes, and computational design have enabled new forms of co-authorship between humans, machines, and materials, these practices remain vulnerable to re-centralization. Proprietary platforms, opaque algorithms, and corporate data infrastructures risk absorbing open workflows into closed technical stacks. The challenge, therefore, is not only how to distribute tools, but how to distribute the ability to understand and govern technological processes.
-Ng proposes decentralized indexing as a foundational architecture for Common Data Environments (CDEs). Rather than storing project information, authorship records, and fabrication data within a single authority, hse introduces mechanisms for distributed tracing, verification, and governance. Through blockchain-inspired consensus models—such as his “Proof-of-Architectural-Work”—Ng enables contributions to be recorded immutably and transparently, ensuring that collective knowledge cannot be enclosed or monetized by intermediaries. These systems allow authorship to be legible across federated networks, support peer-to-peer validation of design and fabrication processes, and establish value frameworks based on participation, reputation, and shared stewardship rather than extraction.
+Ng proposes decentralized indexing as a foundational architecture for Common Data Environments (CDEs). Rather than storing project information, authorship records, and fabrication data within a single authority, she introduces mechanisms for distributed tracing, verification, and governance. Through blockchain-inspired consensus models—such as her “Proof-of-Architectural-Work”—Ng enables contributions to be recorded immutably and transparently, ensuring that collective knowledge cannot be enclosed or monetized by intermediaries. These systems allow authorship to be legible across federated networks, support peer-to-peer validation of design and fabrication processes, and establish value frameworks based on participation, reputation, and shared stewardship rather than extraction.
 Read within the broader evolution of post-digital thought, Ng provides the missing institutional layer. She shows how the distributed agencies theorized by Snooks, Crolla, and Vázquez &amp; Jabi can scale without losing reciprocity or intelligibility. Ultimately, Ng reframes CDEs as political infrastructures: environments where the means of production remain public, traceable, and collectively cared for, enabling technological emancipation through durable forms of epistemic transparency.</t>
   </si>
 </sst>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>

--- a/litgraph/Lit_Review.xlsx
+++ b/litgraph/Lit_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\Documents\GitHub\cxlso.github.io\litgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE767F7-5B72-458B-909E-146B8B40D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A8645-498A-422A-AFD8-70BA5DBE1246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="601">
   <si>
     <t>ID</t>
   </si>
@@ -2046,6 +2046,12 @@
     <t>Provides Ng’s Decentralised Indexing in Common Data Environments (2025) addresses a structural problem that becomes urgent in post-digital design: how to sustain distributed, intelligible, and participatory technological ecosystems once they scale beyond local labs or workshops. Ng argues that while digital fabrication, robotic-aided processes, and computational design have enabled new forms of co-authorship between humans, machines, and materials, these practices remain vulnerable to re-centralization. Proprietary platforms, opaque algorithms, and corporate data infrastructures risk absorbing open workflows into closed technical stacks. The challenge, therefore, is not only how to distribute tools, but how to distribute the ability to understand and govern technological processes.
 Ng proposes decentralized indexing as a foundational architecture for Common Data Environments (CDEs). Rather than storing project information, authorship records, and fabrication data within a single authority, she introduces mechanisms for distributed tracing, verification, and governance. Through blockchain-inspired consensus models—such as her “Proof-of-Architectural-Work”—Ng enables contributions to be recorded immutably and transparently, ensuring that collective knowledge cannot be enclosed or monetized by intermediaries. These systems allow authorship to be legible across federated networks, support peer-to-peer validation of design and fabrication processes, and establish value frameworks based on participation, reputation, and shared stewardship rather than extraction.
 Read within the broader evolution of post-digital thought, Ng provides the missing institutional layer. She shows how the distributed agencies theorized by Snooks, Crolla, and Vázquez &amp; Jabi can scale without losing reciprocity or intelligibility. Ultimately, Ng reframes CDEs as political infrastructures: environments where the means of production remain public, traceable, and collectively cared for, enabling technological emancipation through durable forms of epistemic transparency.</t>
+  </si>
+  <si>
+    <t>https://computationalcreativity.net/workshops/computational-design-iccc25/papers/provides2025a.pdf</t>
+  </si>
+  <si>
+    <t>ICCC 25</t>
   </si>
 </sst>
 </file>
@@ -2115,13 +2121,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2429,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -4314,7 +4319,13 @@
       <c r="G66">
         <v>2025</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="H66" t="s">
+        <v>600</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J66" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5532,6 +5543,7 @@
     <hyperlink ref="I111" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="I35" r:id="rId39" xr:uid="{E5F347C5-5D6B-4351-8E82-0C7763FF2326}"/>
     <hyperlink ref="I19" r:id="rId40" xr:uid="{174D6D23-9E65-4EE0-A27A-BE34DB0F421A}"/>
+    <hyperlink ref="I66" r:id="rId41" xr:uid="{D30E4B2A-C639-4034-8270-0EF978D1B539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
